--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/C触发器_Triggers_MainStory_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/C触发器_Triggers_MainStory_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20645134-02A6-44EB-B631-76AF7D8262C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC15786-F214-45F0-A15A-A5BACD03107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,16 +545,16 @@
     <t>纳米西部落外交重置</t>
   </si>
   <si>
-    <t>[[imp:Você tem um tratado em suas mãos. Ele deve ser assinado para estabelecer a paz entre os Ifrit e a humanidade, e para prevenir mais um Sol Negro.]]</t>
-  </si>
-  <si>
-    <t>[[imp:Sobre o Cristal Sangue Negro.]]</t>
-  </si>
-  <si>
-    <t>[[imp:As outras tribos foram conquistadas, como você exigiu.]]</t>
-  </si>
-  <si>
-    <t>[[imp:Você tem um tratado em mãos. Ele deve ser assinado para estabelecer a paz entre os Ifrit e a humanidade, e evitar mais um Sol Negro.]]</t>
+    <t>[[imp:Você tem um tratado em mãos. Deve ser assinado para estabelecer a paz entre os Ifrit e a humanidade, e evitar mais um Sol Negro.]]</t>
+  </si>
+  <si>
+    <t>[[imp:Sobre o Cristal Sangue-Negro.l]]</t>
+  </si>
+  <si>
+    <t>[[imp:Sobre o Cristal Sangue-Negro.]]</t>
+  </si>
+  <si>
+    <t>[[imp:As outras tribos foram conquistadas, conforme você exigiu.]]</t>
   </si>
   <si>
     <t>[[imp:O que você quer que eu faça com este tratado...]]</t>
@@ -566,7 +566,7 @@
     <t>[[imp:Sobre as preocupações de Ludo Khan...]]</t>
   </si>
   <si>
-    <t>[[imp:Eu tenho algo semelhante. Você pode se interessar.]]</t>
+    <t>[[imp:Eu tenho algo semelhante. Talvez possa lhe interessar.]]</t>
   </si>
   <si>
     <t>[[imp:Como você conheceu a Princesa Ilayda?]]</t>
@@ -1279,18 +1279,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="157.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="151.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="22.5">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -1301,265 +1301,265 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="22.5">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="22.5">
+    <row r="3" spans="1:3" ht="33.75">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="22.5">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="22.5">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="22.5">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="22.5">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="22.5">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5">
+    <row r="9" spans="1:3" ht="33.75">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="22.5">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="22.5">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="22.5">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="22.5">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="22.5">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="22.5">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="22.5">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="22.5">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="22.5">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="22.5">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="22.5">
       <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="22.5">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="22.5">
       <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="22.5">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="22.5">
       <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="33.75">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="22.5">
       <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="22.5">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="22.5">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="22.5">
       <c r="A29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="22.5">
       <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="22.5">
       <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="22.5">
       <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="22.5">
       <c r="A33" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="22.5">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="22.5">
       <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="22.5">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="22.5">
       <c r="A37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="22.5">
       <c r="A38" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:3" ht="22.5">
+    <row r="39" spans="1:3" ht="33.75">
       <c r="A39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:3" ht="22.5">
+    <row r="40" spans="1:3" ht="33.75">
       <c r="A40" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:3" ht="22.5">
+    <row r="41" spans="1:3" ht="33.75">
       <c r="A41" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="22.5">
       <c r="A42" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:3" ht="22.5">
+    <row r="43" spans="1:3" ht="45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:3" ht="22.5">
+    <row r="44" spans="1:3" ht="33.75">
       <c r="A44" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="101.25">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="22.5">
+    <row r="46" spans="1:3" ht="45">
       <c r="A46" s="13" t="s">
         <v>48</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="22.5">
+    <row r="47" spans="1:3" ht="33.75">
       <c r="A47" s="13" t="s">
         <v>50</v>
       </c>
@@ -1589,16 +1589,16 @@
         <v>49</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="22.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="33.75">
       <c r="A48" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:3" ht="22.5">
+    <row r="49" spans="1:3" ht="45">
       <c r="A49" s="13" t="s">
         <v>52</v>
       </c>
@@ -1606,70 +1606,70 @@
         <v>53</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="22.5">
       <c r="A50" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="22.5">
       <c r="A51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:3" ht="22.5">
+    <row r="52" spans="1:3" ht="33.75">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="1:3" ht="22.5">
+    <row r="53" spans="1:3" ht="33.75">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="1:3" ht="22.5">
+    <row r="54" spans="1:3" ht="33.75">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" spans="1:3" ht="22.5">
+    <row r="55" spans="1:3" ht="33.75">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" spans="1:3" ht="22.5">
+    <row r="56" spans="1:3" ht="33.75">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:3" ht="22.5">
+    <row r="57" spans="1:3" ht="33.75">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:3" ht="22.5">
+    <row r="58" spans="1:3" ht="56.25">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="22.5">
       <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="18"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="22.5">
       <c r="A60" s="16" t="s">
         <v>64</v>
       </c>
@@ -1677,10 +1677,10 @@
         <v>47</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="22.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="33.75">
       <c r="A61" s="16" t="s">
         <v>65</v>
       </c>
@@ -1691,37 +1691,37 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="22.5">
+    <row r="62" spans="1:3" ht="33.75">
       <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="18"/>
     </row>
-    <row r="63" spans="1:3" ht="22.5">
+    <row r="63" spans="1:3" ht="33.75">
       <c r="A63" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="18"/>
     </row>
-    <row r="64" spans="1:3" ht="22.5">
+    <row r="64" spans="1:3" ht="33.75">
       <c r="A64" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="18"/>
     </row>
-    <row r="65" spans="1:3" ht="22.5">
+    <row r="65" spans="1:3" ht="33.75">
       <c r="A65" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" ht="22.5">
+    <row r="66" spans="1:3" ht="33.75">
       <c r="A66" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="20"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="101.25">
       <c r="A67" s="8" t="s">
         <v>72</v>
       </c>
@@ -1732,37 +1732,37 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="33.75">
       <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="22.5">
       <c r="A69" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="1:3" ht="22.5">
+    <row r="70" spans="1:3" ht="33.75">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="1:3" ht="22.5">
+    <row r="71" spans="1:3" ht="45">
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="1:3" ht="22.5">
+    <row r="72" spans="1:3" ht="33.75">
       <c r="A72" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="20"/>
     </row>
-    <row r="73" spans="1:3" ht="22.5">
+    <row r="73" spans="1:3" ht="101.25">
       <c r="A73" s="10" t="s">
         <v>78</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="101.25">
       <c r="A74" s="10" t="s">
         <v>79</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="45">
       <c r="A75" s="10" t="s">
         <v>80</v>
       </c>
@@ -1795,55 +1795,55 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="22.5">
       <c r="A76" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" ht="22.5">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:3" ht="22.5">
+    <row r="78" spans="1:3" ht="33.75">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:3" ht="22.5">
+    <row r="79" spans="1:3" ht="33.75">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:3" ht="22.5">
+    <row r="80" spans="1:3" ht="33.75">
       <c r="A80" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="22.5">
       <c r="A81" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:3" ht="22.5">
+    <row r="82" spans="1:3" ht="33.75">
       <c r="A82" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="1:3" ht="22.5">
+    <row r="83" spans="1:3" ht="33.75">
       <c r="A83" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="20"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="33.75">
       <c r="A84" s="21" t="s">
         <v>90</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="22.5">
       <c r="A85" s="21" t="s">
         <v>92</v>
       </c>
@@ -1862,34 +1862,34 @@
         <v>47</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="22.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="33.75">
       <c r="A86" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="22.5">
       <c r="A87" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="22.5">
       <c r="A88" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="22.5">
       <c r="A89" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="33.75">
       <c r="A90" s="21" t="s">
         <v>97</v>
       </c>
@@ -1900,187 +1900,187 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="22.5">
+    <row r="91" spans="1:3" ht="33.75">
       <c r="A91" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="1:3" ht="22.5">
+    <row r="92" spans="1:3" ht="33.75">
       <c r="A92" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="22.5">
       <c r="A93" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="22.5">
       <c r="A94" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B94" s="22"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="22.5">
       <c r="A95" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B95" s="22"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="22.5">
       <c r="A96" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="22"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" ht="22.5">
       <c r="A97" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B97" s="24"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="22.5">
       <c r="A98" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B98" s="24"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" ht="22.5">
       <c r="A99" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="22.5">
       <c r="A100" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B100" s="22"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="22.5">
       <c r="A101" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="22"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="22.5">
       <c r="A102" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" ht="22.5">
       <c r="A103" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" ht="22.5">
       <c r="A104" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B104" s="24"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" ht="22.5">
       <c r="A105" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B105" s="24"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="22.5">
       <c r="A106" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B106" s="24"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="22.5">
       <c r="A107" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B107" s="24"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="22.5">
       <c r="A108" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B108" s="24"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" ht="22.5">
       <c r="A109" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B109" s="24"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" ht="22.5">
       <c r="A110" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="24"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" ht="22.5">
       <c r="A111" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B111" s="24"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" ht="22.5">
       <c r="A112" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B112" s="24"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="22.5">
       <c r="A113" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B113" s="24"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="22.5">
       <c r="A114" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B114" s="24"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="22.5">
       <c r="A115" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B115" s="24"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="22.5">
       <c r="A116" s="23" t="s">
         <v>124</v>
       </c>
       <c r="B116" s="24"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="22.5">
       <c r="A117" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B117" s="24"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="33.75">
       <c r="A118" s="23" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="24"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="22.5">
       <c r="A119" s="23" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="24"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="22.5">
       <c r="A120" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B120" s="24"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" ht="45">
       <c r="A121" s="25" t="s">
         <v>129</v>
       </c>
@@ -2091,115 +2091,115 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="33.75">
       <c r="A122" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B122" s="22"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="22.5">
       <c r="A123" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B123" s="22"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="22.5">
       <c r="A124" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="22.5">
       <c r="A125" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B125" s="27"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" ht="22.5">
       <c r="A126" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B126" s="27"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" ht="22.5">
       <c r="A127" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B127" s="27"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" ht="22.5">
       <c r="A128" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B128" s="27"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" ht="22.5">
       <c r="A129" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B129" s="27"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" ht="22.5">
       <c r="A130" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B130" s="22"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" ht="22.5">
       <c r="A131" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B131" s="22"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" ht="22.5">
       <c r="A132" s="27" t="s">
         <v>141</v>
       </c>
       <c r="B132" s="27"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" ht="22.5">
       <c r="A133" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B133" s="22"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" ht="22.5">
       <c r="A134" s="27" t="s">
         <v>143</v>
       </c>
       <c r="B134" s="27"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" ht="22.5">
       <c r="A135" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B135" s="9"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" ht="22.5">
       <c r="A136" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B136" s="9"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" ht="22.5">
       <c r="A137" s="27" t="s">
         <v>146</v>
       </c>
       <c r="B137" s="27"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" ht="22.5">
       <c r="A138" s="27" t="s">
         <v>147</v>
       </c>
       <c r="B138" s="27"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" ht="22.5">
       <c r="A139" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B139" s="27"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" ht="22.5">
       <c r="A140" s="27" t="s">
         <v>149</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B142" s="22"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" ht="22.5">
       <c r="A143" s="27" t="s">
         <v>152</v>
       </c>
@@ -2229,79 +2229,79 @@
       </c>
       <c r="B144" s="9"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" ht="22.5">
       <c r="A145" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B145" s="9"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" ht="22.5">
       <c r="A146" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B146" s="9"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" ht="22.5">
       <c r="A147" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B147" s="28"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" ht="22.5">
       <c r="A148" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B148" s="28"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" ht="22.5">
       <c r="A149" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B149" s="28"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" ht="22.5">
       <c r="A150" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B150" s="28"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" ht="22.5">
       <c r="A151" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B151" s="28"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" ht="22.5">
       <c r="A152" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B152" s="28"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" ht="22.5">
       <c r="A153" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B153" s="28"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" ht="22.5">
       <c r="A154" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B154" s="22"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" ht="22.5">
       <c r="A155" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B155" s="9"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" ht="22.5">
       <c r="A156" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B156" s="9"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" ht="22.5">
       <c r="A157" s="10" t="s">
         <v>166</v>
       </c>
